--- a/CoffeeStore/ExcelBill/BL00006.xlsx
+++ b/CoffeeStore/ExcelBill/BL00006.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t/>
   </si>
@@ -35,7 +35,7 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>02/05/2022</t>
+    <t>05/05/2022</t>
   </si>
   <si>
     <t>Staff:</t>
@@ -53,7 +53,7 @@
     <t>Table:</t>
   </si>
   <si>
-    <t>TB002</t>
+    <t>TB005</t>
   </si>
   <si>
     <t>Num</t>
@@ -71,30 +71,18 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Brown Sugar Milk Tea</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Size: L - Status: COLD</t>
+    <t>Carrot Juice</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Size: S - Status: COLD</t>
   </si>
   <si>
     <t xml:space="preserve"> - Golden Pearl</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Brown Sugar Pearl</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Konjac Caramel Jelly</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Carrot Juice</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Size: S - Status: COLD</t>
-  </si>
-  <si>
     <t xml:space="preserve"> - Diamond Jelly</t>
   </si>
   <si>
@@ -102,24 +90,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - Pudding</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Lemon Yogurt</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Pearl Black Tea</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Black Tea Latte</t>
   </si>
   <si>
     <t>Total:</t>
@@ -666,7 +636,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -776,10 +746,10 @@
         <v>19</v>
       </c>
       <c r="F13" t="n" s="7">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G13" t="n" s="7">
-        <v>114000.0</v>
+        <v>47000.0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
@@ -825,407 +795,98 @@
         <v>1.0</v>
       </c>
       <c r="G17" t="n" s="8">
-        <v>8000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I17" s="10"/>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="17">
+      <c r="A18" s="13"/>
+      <c r="B18" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B18" t="s" s="7">
-        <v>25</v>
-      </c>
-      <c r="F18" t="n" s="7">
+      <c r="F18" t="n" s="8">
         <v>1.0</v>
       </c>
-      <c r="G18" t="n" s="7">
-        <v>47000.0</v>
+      <c r="G18" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I18" s="10"/>
     </row>
     <row r="19">
       <c r="A19" s="13"/>
-      <c r="B19" t="s">
-        <v>26</v>
+      <c r="B19" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="F19" t="n" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G19" t="n" s="8">
+        <v>6000.0</v>
       </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20">
       <c r="A20" s="13"/>
-      <c r="B20" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F20" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G20" t="n" s="8">
-        <v>6000.0</v>
-      </c>
       <c r="I20" s="10"/>
     </row>
     <row r="21">
       <c r="A21" s="13"/>
-      <c r="B21" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F21" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G21" t="n" s="8">
-        <v>8000.0</v>
+      <c r="F21" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="H21" t="n" s="9">
+        <v>47000.0</v>
       </c>
       <c r="I21" s="10"/>
     </row>
     <row r="22">
       <c r="A22" s="13"/>
-      <c r="B22" t="s" s="8">
+      <c r="F22" t="s" s="4">
         <v>27</v>
       </c>
-      <c r="F22" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G22" t="n" s="8">
-        <v>6000.0</v>
+      <c r="H22" t="n" s="9">
+        <v>0.0</v>
       </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23">
       <c r="A23" s="13"/>
-      <c r="B23" t="s" s="8">
+      <c r="F23" t="s" s="4">
         <v>28</v>
       </c>
-      <c r="F23" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G23" t="n" s="8">
-        <v>6000.0</v>
+      <c r="H23" t="n" s="9">
+        <v>0.0</v>
       </c>
       <c r="I23" s="10"/>
     </row>
     <row r="24">
       <c r="A24" s="13"/>
-      <c r="B24" t="s" s="8">
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13"/>
+      <c r="C25" t="s" s="6">
         <v>29</v>
-      </c>
-      <c r="F24" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G24" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="F25" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G25" t="n" s="7">
-        <v>47000.0</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26">
       <c r="A26" s="13"/>
-      <c r="B26" t="s">
-        <v>26</v>
+      <c r="C26" t="s" s="6">
+        <v>30</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27">
-      <c r="A27" s="13"/>
-      <c r="B27" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F27" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G27" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13"/>
-      <c r="B28" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F28" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G28" t="n" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="I28" s="10"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13"/>
-      <c r="B29" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="F29" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G29" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I29" s="10"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13"/>
-      <c r="B30" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="F30" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G30" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I30" s="10"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13"/>
-      <c r="B31" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="F31" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G31" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I31" s="10"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="F32" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G32" t="n" s="7">
-        <v>51000.0</v>
-      </c>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="13"/>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="10"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="13"/>
-      <c r="B34" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F34" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G34" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I34" s="10"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="13"/>
-      <c r="B35" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F35" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G35" t="n" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="I35" s="10"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13"/>
-      <c r="B36" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="F36" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G36" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I36" s="10"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13"/>
-      <c r="B37" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="F37" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G37" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13"/>
-      <c r="B38" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="F38" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G38" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I38" s="10"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="F39" t="n" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G39" t="n" s="7">
-        <v>51000.0</v>
-      </c>
-      <c r="I39" s="10"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="13"/>
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="10"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="13"/>
-      <c r="B41" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="F41" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G41" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I41" s="10"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="13"/>
-      <c r="B42" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="F42" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G42" t="n" s="8">
-        <v>8000.0</v>
-      </c>
-      <c r="I42" s="10"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="13"/>
-      <c r="B43" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="F43" t="n" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="G43" t="n" s="8">
-        <v>6000.0</v>
-      </c>
-      <c r="I43" s="10"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="13"/>
-      <c r="B44" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="F44" t="n" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="G44" t="n" s="8">
-        <v>12000.0</v>
-      </c>
-      <c r="I44" s="10"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="13"/>
-      <c r="I45" s="10"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="13"/>
-      <c r="F46" t="s" s="4">
-        <v>36</v>
-      </c>
-      <c r="H46" t="n" s="9">
-        <v>310000.0</v>
-      </c>
-      <c r="I46" s="10"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="13"/>
-      <c r="F47" t="s" s="4">
-        <v>37</v>
-      </c>
-      <c r="H47" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I47" s="10"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="13"/>
-      <c r="F48" t="s" s="4">
-        <v>38</v>
-      </c>
-      <c r="H48" t="n" s="9">
-        <v>0.0</v>
-      </c>
-      <c r="I48" s="10"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="13"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="13"/>
-      <c r="C50" t="s" s="6">
-        <v>39</v>
-      </c>
-      <c r="I50" s="10"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="13"/>
-      <c r="C51" t="s" s="6">
-        <v>40</v>
-      </c>
-      <c r="I51" s="10"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="23"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1253,64 +914,18 @@
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
